--- a/target/test-classes/excelfiles/UserSettingsPageTestData.xlsx
+++ b/target/test-classes/excelfiles/UserSettingsPageTestData.xlsx
@@ -5,15 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramaz\IdeaProjects\InterviewsFolder\GMITeam07Original\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramaz\IdeaProjects\InterviewsFolder\GMITeam07Original\src\test\resources\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B931AEC-A79C-44AE-B49A-1B14C8AE0FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE37005-6505-4966-868D-8CFA04DB969D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49ED2905-C009-4B4E-B24D-18FA3D41085A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F6C243-8B15-4381-9FB1-5AA03AA4B06A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
+    <sheet name="TC_0001" sheetId="10" r:id="rId2"/>
+    <sheet name="TC_0002" sheetId="9" r:id="rId3"/>
+    <sheet name="TC_0003" sheetId="8" r:id="rId4"/>
+    <sheet name="TC_0004" sheetId="1" r:id="rId5"/>
+    <sheet name="TC_0005" sheetId="3" r:id="rId6"/>
+    <sheet name="TC_0006" sheetId="4" r:id="rId7"/>
+    <sheet name="TC_0007" sheetId="5" r:id="rId8"/>
+    <sheet name="TC_0008" sheetId="6" r:id="rId9"/>
+    <sheet name="TC_0009" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +43,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>yourfirstnameisrequired</t>
+  </si>
+  <si>
+    <t>successmessage</t>
+  </si>
+  <si>
+    <t>team07user</t>
+  </si>
+  <si>
+    <t>Settings saved!</t>
+  </si>
+  <si>
+    <t>TC_0005</t>
+  </si>
+  <si>
+    <t>successfulsavedmessage</t>
+  </si>
+  <si>
+    <t>TCId</t>
+  </si>
+  <si>
+    <t>invalidshortemail</t>
+  </si>
+  <si>
+    <t>shortemailmessage</t>
+  </si>
+  <si>
+    <t>TC_0006</t>
+  </si>
+  <si>
+    <t>a@sz</t>
+  </si>
+  <si>
+    <t>at least 5 characters</t>
+  </si>
+  <si>
+    <t>invalidemail</t>
+  </si>
+  <si>
+    <t>thisfieldisinvalid</t>
+  </si>
+  <si>
+    <t>TC_0007</t>
+  </si>
+  <si>
+    <t>Your first name is required</t>
+  </si>
+  <si>
+    <t>TC_0009</t>
+  </si>
+  <si>
+    <t>TC_0008</t>
+  </si>
+  <si>
+    <t>This field is invalid</t>
+  </si>
+  <si>
+    <t>sadf@.com</t>
+  </si>
+  <si>
+    <t>youremailisrequired</t>
+  </si>
+  <si>
+    <t>Your email is required</t>
+  </si>
+  <si>
+    <t>TC_0004</t>
+  </si>
+  <si>
+    <t>TC_0003</t>
+  </si>
+  <si>
+    <t>newfirstname</t>
+  </si>
+  <si>
+    <t>newlastname</t>
+  </si>
+  <si>
+    <t>newemail</t>
+  </si>
+  <si>
+    <t>newlanguage</t>
+  </si>
+  <si>
+    <t>firstlanguageselection</t>
+  </si>
+  <si>
+    <t>secondlanguageselection</t>
+  </si>
+  <si>
+    <t>TC_0002</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Türkçe</t>
+  </si>
+  <si>
+    <t>team07admin</t>
+  </si>
+  <si>
+    <t>team07manager</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Sparrow</t>
+  </si>
+  <si>
+    <t>jacksparrow@timail.com</t>
+  </si>
+  <si>
+    <t>S123456s?</t>
+  </si>
+  <si>
+    <t>TC_0001</t>
+  </si>
+  <si>
+    <t>team07customer</t>
+  </si>
+  <si>
+    <t>team07employee</t>
+  </si>
+  <si>
+    <t>bsr@gzom</t>
+  </si>
+  <si>
+    <t>b@morz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @dom.com</t>
+  </si>
+  <si>
+    <t>maritt.com</t>
+  </si>
+  <si>
+    <t>maritt.com@</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Erva</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Blacksmith</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>johnsmith09@zmail.zom</t>
+  </si>
+  <si>
+    <t>maryhans@zmail.zom</t>
+  </si>
+  <si>
+    <t>nancyredss@zmail.zom</t>
+  </si>
+  <si>
+    <t>ervaska@zmail.zom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @t.c</t>
+  </si>
+  <si>
+    <t>t.cd</t>
+  </si>
+  <si>
+    <t>bgdf</t>
+  </si>
+  <si>
+    <t>a1b2</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
   <si>
     <t>TC_0011</t>
-  </si>
-  <si>
-    <t>TestCaseId</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
   </si>
   <si>
     <t>abc</t>
@@ -64,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +273,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,13 +316,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,36 +643,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F64D05-C662-40BB-9E9C-0AD5EF4B57E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7BF91C-C2FD-48AC-BB12-A782A718BFD7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>123</v>
@@ -445,10 +679,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>456</v>
@@ -456,10 +690,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>789</v>
@@ -467,10 +701,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>101112</v>
@@ -479,4 +713,1480 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31105E27-2A44-423E-87CD-CEA1657832E7}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1" si="0">_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|")</f>
+        <v>|username|password|successmessage|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|")</f>
+        <v>|team07user|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="1">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|")</f>
+        <v>|team07admin|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07manager|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07customer|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07employee|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748614E-51F5-4193-9A30-9A1C6F5A2723}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("|",B1,"|",C1,"|")</f>
+        <v>|username|password|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|")</f>
+        <v>|team07user|S123456s?|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT("|",B3,"|",C3,"|")</f>
+        <v>|team07admin|S123456s?|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07manager|S123456s?|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07customer|S123456s?|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07employee|S123456s?|</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DC1A04-326B-452B-B83C-CCF103096335}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|",E1,"|",F1,"|")</f>
+        <v>|username|password|firstlanguageselection|secondlanguageselection|successfulsavedmessage|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|",E2,"|",F2,"|")</f>
+        <v>|team07user|S123456s?|Türkçe|English|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G6" si="0">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|",E3,"|",F3,"|")</f>
+        <v>|team07admin|S123456s?|English|Türkçe|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07manager|S123456s?|English|Türkçe|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07customer|S123456s?|Türkçe|English|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07employee|S123456s?|Türkçe|English|Settings saved!|</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702C87DA-5CDE-4A56-98A3-BC7F748BDBCE}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="96.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="str">
+        <f>_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|",E1,"|",F1,"|",G1,"|",H1,"|")</f>
+        <v>|username|password|newfirstname|newlastname|newemail|newlanguage|successfulsavedmessage|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|",E2,"|",F2,"|",G2,"|",H2,"|")</f>
+        <v>|team07user|S123456s?|Jack|Sparrow|jacksparrow@timail.com|English|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I6" si="0">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|",E3,"|",F3,"|",G3,"|",H3,"|")</f>
+        <v>|team07admin|S123456s?|John|Smith|johnsmith09@zmail.zom|Türkçe|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07manager|S123456s?|mary|Blacksmith|maryhans@zmail.zom|English|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07customer|S123456s?|Nancy|Red|nancyredss@zmail.zom|Türkçe|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07employee|S123456s?|Erva|Kit|ervaska@zmail.zom|English|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F0B8E8FD-CD74-4D3D-85CB-F273B3558CF9}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{B9DBD489-C90F-4A66-B5D8-18D4807FBD40}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{853FA7BC-BE7C-4F4B-9827-6BB5C576F409}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{EDC5D1E1-168D-4B5F-B2A8-A0548C43FA41}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{9BBD113B-963C-4580-8341-24F719625539}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6CC11-6447-498B-8465-21E0A0089791}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|")</f>
+        <v>|username|password|youremailisrequired|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|")</f>
+        <v>|team07user|S123456s?|Your email is required|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|")</f>
+        <v>|team07admin|S123456s?|Your email is required|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07manager|S123456s?|Your email is required|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07customer|S123456s?|Your email is required|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07employee|S123456s?|Your email is required|</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14136E32-6A66-420B-A6FC-8A17C6A81158}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|")</f>
+        <v>|username|password|successfulsavedmessage|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|")</f>
+        <v>|team07user|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|")</f>
+        <v>|team07admin|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07manager|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07customer|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07employee|S123456s?|Settings saved!|</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3648B0B-DC3A-4E51-BF6C-05A7EAD31781}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="7" width="81.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1" si="0">_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|",E1,"|",F1,"|")</f>
+        <v>|username|password|invalidshortemail|shortemailmessage|successfulsavedmessage|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|",E2,"|",F2,"|")</f>
+        <v>|team07user|S123456s?|a@sz|at least 5 characters|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="1">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|",E3,"|",F3,"|")</f>
+        <v>|team07admin|S123456s?| @t.c|at least 5 characters|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07manager|S123456s?|t.cd|at least 5 characters|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07customer|S123456s?|bgdf|at least 5 characters|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>1234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07employee|S123456s?|1234|at least 5 characters|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07user|S123456s?|a1b2|at least 5 characters|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4367988D-54BE-4E10-8016-18050983B437}"/>
+    <hyperlink ref="D7" r:id="rId2" display="a@sz" xr:uid="{137C2776-CAC9-4A05-AE90-03FEFB403730}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE1385-661B-4F29-B4AF-7CEF1A474F7B}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|",E1,"|",F1,"|")</f>
+        <v>|username|password|invalidemail|thisfieldisinvalid|successfulsavedmessage|</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|",E2,"|",F2,"|")</f>
+        <v>|team07user|S123456s?|sadf@.com|This field is invalid|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="0">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|",E3,"|",F3,"|")</f>
+        <v>|team07admin|S123456s?|bsr@gzom|This field is invalid|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07manager|S123456s?|b@morz.|This field is invalid|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07customer|S123456s?| @dom.com|This field is invalid|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07employee|S123456s?|maritt.com|This field is invalid|Settings saved!|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>|team07user|S123456s?|maritt.com@|This field is invalid|Settings saved!|</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{AF03F642-9342-4445-B108-B71E4A6C7DB2}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E23AC192-B433-43DB-866C-7B54A47D8D0A}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{82BAD2D6-847D-4A86-B263-4CBDEE694083}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{DB241B0C-0093-459B-AFAF-59E816799CFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C80B86-A830-42AC-96BD-C87484A139E6}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="str">
+        <f t="shared" ref="F1" si="0">_xlfn.CONCAT("|",B1,"|",C1,"|",D1,"|",E1,"|")</f>
+        <v>|username|password|yourfirstnameisrequired|successmessage|</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>_xlfn.CONCAT("|",B2,"|",C2,"|",D2,"|",E2,"|")</f>
+        <v>|team07user|S123456s?|Your first name is required|Settings saved!|</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" ref="F3:F6" si="1">_xlfn.CONCAT("|",B3,"|",C3,"|",D3,"|",E3,"|")</f>
+        <v>|team07admin|S123456s?|Your first name is required|Settings saved!|</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07manager|S123456s?|Your first name is required|Settings saved!|</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07customer|S123456s?|Your first name is required|Settings saved!|</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>|team07employee|S123456s?|Your first name is required|Settings saved!|</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>